--- a/medicine/Psychotrope/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915).xlsx
+++ b/medicine/Psychotrope/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Leroy-Beaulieu, né le 25 septembre 1871 au domaine de Montplaisir à Olmet-et-Villecun (Hérault) et mort pour la France le 17 janvier 1915 à Anizy-le-Château (Aisne), est un écrivain et homme politique français.
 </t>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Pierre Leroy-Beaulieu est le fils de l'économiste Paul Leroy-Beaulieu. Il étudie à l'École polytechnique.
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Leroy-Beaulieu est le fils de l'économiste Paul Leroy-Beaulieu. Il étudie à l'École polytechnique.
 Il est le père de Paul Leroy-Beaulieu (1902-1999), inspecteur général des finances, conseiller financier du haut-commandement allié à Berlin puis de l'ambassade de France à Bonn, président du bureau économique et financier de l'OTAN, ainsi que de l'ambassadeur Michel Leroy-Beaulieu.
-Parcours politique
-Le 6 mai 1906, il est élu député de l'Hérault au premier tour de scrutin, et est réélu le 8 mai 1910.
-Autres activités
-Pierre Leroy-Beaulieu est auteur de plusieurs livres consacrés à des sujets politiques et économiques. Il enseigne à l'École libre des sciences politiques, où, grâce à Émile Levasseur, il enseigne la géographie économique[1].
-Il devient également propriétaire viticulteur. Il acquiert en 1914 le château de Cambous.
-Capitaine d'artillerie durant la Première Guerre mondiale, il est blessé à la tête le 13 janvier 1915 dans les combats au nord de Soissons et meurt quelques jours plus tard dans une ambulance allemande.
 </t>
         </is>
       </c>
@@ -547,10 +558,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6 mai 1906, il est élu député de l'Hérault au premier tour de scrutin, et est réélu le 8 mai 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres activités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Leroy-Beaulieu est auteur de plusieurs livres consacrés à des sujets politiques et économiques. Il enseigne à l'École libre des sciences politiques, où, grâce à Émile Levasseur, il enseigne la géographie économique.
+Il devient également propriétaire viticulteur. Il acquiert en 1914 le château de Cambous.
+Capitaine d'artillerie durant la Première Guerre mondiale, il est blessé à la tête le 13 janvier 1915 dans les combats au nord de Soissons et meurt quelques jours plus tard dans une ambulance allemande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les nouvelles sociétés anglo-saxonnes, 1897, prix Montyon de l’Académie française en 1898
 La Rénovation de l'Asie, 1900, prix Marcelin Guérin de l’Académie française en 1901
@@ -559,31 +648,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pierre_Leroy-Beaulieu_(homme_politique,_1871-1915)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Pierre Rain, L'École Libre Des Sciences Politiques, Fondation nationale des sciences politiques, 1963 (ISBN 978-2-7246-0033-9, lire en ligne)
